--- a/data/valide/capacitaire.xlsx
+++ b/data/valide/capacitaire.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin_daniel/Documents/ap_hp_covid_19/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin_daniel/Documents/ap_hp_covid_19/data/valide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BE4E3F-D6DC-0443-9FFC-527162F8D35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39533697-819B-E244-BBCD-2AF3D8FF6278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="capacitaire" sheetId="1" r:id="rId1"/>
+    <sheet name="Capacitaire V0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Capacitaire V0'!$A$1:$E$168</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="171">
   <si>
     <t>hopital</t>
   </si>
@@ -28,524 +31,527 @@
     <t>service_covid</t>
   </si>
   <si>
+    <t>lits_ouverts_covid</t>
+  </si>
+  <si>
+    <t>Full COVID 1/0</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>SSR PASCAL</t>
+  </si>
+  <si>
+    <t>REA CHIR</t>
+  </si>
+  <si>
+    <t>REA EN SSPI</t>
+  </si>
+  <si>
+    <t>CHB 3</t>
+  </si>
+  <si>
+    <t>CHB 4</t>
+  </si>
+  <si>
+    <t>CHB 4 SC</t>
+  </si>
+  <si>
+    <t>HEPATO FRED SIGUIER</t>
+  </si>
+  <si>
+    <t>ADDICTOLOGIE</t>
+  </si>
+  <si>
+    <t>USLD CHAMPAGNE</t>
+  </si>
+  <si>
+    <t>USLD BOURGOGNE</t>
+  </si>
+  <si>
+    <t>SSR PICARDIE - POST COVID +</t>
+  </si>
+  <si>
+    <t>USLD LANGUEDOC - COVID +</t>
+  </si>
+  <si>
+    <t>USP DELARUE</t>
+  </si>
+  <si>
+    <t>SSR HUGO - ALZHEIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USLD LAFONTAINE </t>
+  </si>
+  <si>
+    <t>USLD CLAUDEL</t>
+  </si>
+  <si>
+    <t>USLD PICASSO - COVID +</t>
+  </si>
+  <si>
+    <t>SSR GERICAULT - POST COVID +</t>
+  </si>
+  <si>
+    <t>SSR VINCI</t>
+  </si>
+  <si>
+    <t>USLD DEBUSSY</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>SSR MOZART - COVID +</t>
+  </si>
+  <si>
+    <t>UCC - COVID +</t>
+  </si>
+  <si>
+    <t>USP MONTAIGNE</t>
+  </si>
+  <si>
+    <t>NUTRITION CLINIQUE</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>ENDOCRINO/DIABETO PED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PED GEN </t>
+  </si>
+  <si>
+    <t>NEUROPEDIATRIE</t>
+  </si>
+  <si>
+    <t>RHUMATO PED</t>
+  </si>
+  <si>
+    <t>PED GEN - COVID +</t>
+  </si>
+  <si>
+    <t>HEPATO PED</t>
+  </si>
+  <si>
+    <t>CHIR PED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REA + SC CHIR </t>
+  </si>
+  <si>
+    <t>ZSTCD ADULTES</t>
+  </si>
+  <si>
+    <t>REA CHIR AU BO</t>
+  </si>
+  <si>
+    <t>USIP</t>
+  </si>
+  <si>
+    <t>CARDIOLOGIE</t>
+  </si>
+  <si>
+    <t>REA + SC MED</t>
+  </si>
+  <si>
+    <t>USIC</t>
+  </si>
+  <si>
+    <t>HGE/NEPHRO MUTUALISE</t>
+  </si>
+  <si>
+    <t>ENDOCRINO ADULTES</t>
+  </si>
+  <si>
+    <t>ORTHO PLOT C - COVID +</t>
+  </si>
+  <si>
+    <t>ORTHO PLOT D - COVID +</t>
+  </si>
+  <si>
+    <t>UGA BROCA</t>
+  </si>
+  <si>
+    <t>NEPHRO - COVID +</t>
+  </si>
+  <si>
+    <t>UGA FBS</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>MEDECINE INTERNE</t>
+  </si>
+  <si>
+    <t>SMIT</t>
+  </si>
+  <si>
+    <t>RHUMATO ADULTES</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>NEUROLOGIE BABINSKI</t>
+  </si>
+  <si>
+    <t>NEUROLOGIE LAPRESLE</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE PERINAT</t>
+  </si>
+  <si>
+    <t>NEUROCHIR/ORTHO MUTUALISE ALAJOUANINE</t>
+  </si>
+  <si>
+    <t>NEUROLOGIE HDS C. FOIX</t>
+  </si>
+  <si>
+    <t>USINV</t>
+  </si>
+  <si>
+    <t>SOINS POST-AIGUS - ORL-OPH COVID+</t>
+  </si>
+  <si>
+    <t>SSR NEURO</t>
+  </si>
+  <si>
+    <t>NEUROCHIR/ORTHO MUTUALISE DJINDJIAN</t>
+  </si>
+  <si>
+    <t>SRPR</t>
+  </si>
+  <si>
+    <t>REA+SI NEONAT</t>
+  </si>
+  <si>
+    <t>REA+SI PED</t>
+  </si>
+  <si>
+    <t>REA NEONAT</t>
+  </si>
+  <si>
+    <t>OBSTETRIQUE</t>
+  </si>
+  <si>
+    <t>GYNECO/GHR MUTUALISE</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>NEONAT KANGOUROUS</t>
+  </si>
+  <si>
+    <t>CHIR DIG/GYNECO/ORTHO MUTUALISE</t>
+  </si>
+  <si>
+    <t>COVID 30</t>
+  </si>
+  <si>
+    <t>REA (Ex-USC)</t>
+  </si>
+  <si>
+    <t>ORTHO SEPTIQUE</t>
+  </si>
+  <si>
+    <t>COVID 14</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>MEDECINE INTERNE/SMIT</t>
+  </si>
+  <si>
+    <t>HGE</t>
+  </si>
+  <si>
+    <t>PEDIATRIE</t>
+  </si>
+  <si>
+    <t>NEONAT PED</t>
+  </si>
+  <si>
+    <t>UMAT</t>
+  </si>
+  <si>
+    <t>UHCD ADULTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHCD PEDIATRIQUE </t>
+  </si>
+  <si>
+    <t>REA AU BO</t>
+  </si>
+  <si>
+    <t>REA/USC EN SSPI</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USPC </t>
+  </si>
+  <si>
+    <t>USLD VERDI</t>
+  </si>
+  <si>
+    <t>USLD BIZET</t>
+  </si>
+  <si>
+    <t>USP GATINEAU</t>
+  </si>
+  <si>
+    <t>SSR BALME - COVID +</t>
+  </si>
+  <si>
+    <t>SSR CHOPIN</t>
+  </si>
+  <si>
+    <t>SSR/SLD BEAUSOLEIL MUTUALISE</t>
+  </si>
+  <si>
+    <t>SSR/SLD PROUST MUTUALISE</t>
+  </si>
+  <si>
+    <t>SSR MUSSET</t>
+  </si>
+  <si>
+    <t>UGA DEBUSSY - COVID +</t>
+  </si>
+  <si>
+    <t>SSR/SLD APOLLINAIRE MUTUALISE</t>
+  </si>
+  <si>
+    <t>SSR/SLD MOLIERE MUTUALISE</t>
+  </si>
+  <si>
+    <t>READAPTATION MENARD 1</t>
+  </si>
+  <si>
+    <t>READAPTATION POLYVALENTE</t>
+  </si>
+  <si>
+    <t>SSR MENARD 2 - COVID +</t>
+  </si>
+  <si>
+    <t>READAPTATION NUTRITION SORREL 1</t>
+  </si>
+  <si>
+    <t>READAPTATION NEURO SORREL 1</t>
+  </si>
+  <si>
+    <t>READAPTATION GERIATRIQUE</t>
+  </si>
+  <si>
+    <t>READAPTATION NEURO EN NUTRITION SORREL RDC</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>BREZIN 1</t>
+  </si>
+  <si>
+    <t>LETTULE 1</t>
+  </si>
+  <si>
+    <t>LETTULE 3 S1 - REA PED</t>
+  </si>
+  <si>
+    <t>LETTULE 3 S2 - REA PED</t>
+  </si>
+  <si>
+    <t>LETTULE 3 S3 - SRPR PED</t>
+  </si>
+  <si>
+    <t>NETTER 2 - SSR MPR</t>
+  </si>
+  <si>
+    <t>NETTER 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 1 S1 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 1 S2 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 1 S3 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 1 S4 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 2 S1 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 2 S2 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 2 S3 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 2 S4 - COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 3 S3 - REA COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 3 S4 - REA COVID + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDAL 3 S1/S2 - REA COVID + </t>
+  </si>
+  <si>
+    <t>NETTER 1 - SRPR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>ORTHO/SEPTIQUE/VASCULAIRE MUTUALISE</t>
+  </si>
+  <si>
+    <t>UNITE COVID 1er D</t>
+  </si>
+  <si>
+    <t>REA COVID EN ORTHO</t>
+  </si>
+  <si>
+    <t>REA/SC</t>
+  </si>
+  <si>
+    <t>CHIR DIG</t>
+  </si>
+  <si>
+    <t>ENDOCRINO/NUTRITION/PNEUMO MUTUALISE</t>
+  </si>
+  <si>
+    <t>CARDIO</t>
+  </si>
+  <si>
+    <t>NEPHRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDECINE </t>
+  </si>
+  <si>
+    <t>UGA/MEDECINE MUTUALISE</t>
+  </si>
+  <si>
+    <t>MEDECINCE INTERNE 4D - COVID +</t>
+  </si>
+  <si>
+    <t>PNEUMO 5A - COVID +</t>
+  </si>
+  <si>
+    <t>UPOG/UGA - COVID +</t>
+  </si>
+  <si>
+    <t>COVID 5ème D - COVID +</t>
+  </si>
+  <si>
+    <t>DERMATO</t>
+  </si>
+  <si>
+    <t>RHUMATO</t>
+  </si>
+  <si>
+    <t>PEDIATRIE/ADOS MUTUALISE</t>
+  </si>
+  <si>
+    <t>PEDIATRIE/ADOS/ ZHTCD MUTUALISE</t>
+  </si>
+  <si>
+    <t>ONCOGERIATRIE</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE DELAY</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE FELINE</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE PINEL</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE HERMITE</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE DENICKER</t>
+  </si>
+  <si>
+    <t>PSYCHIATRIE SIGWALD</t>
+  </si>
+  <si>
+    <t>COVID 12 (REA/SC)</t>
+  </si>
+  <si>
+    <t>ONCOLOGIE FRED SIGUIER 1</t>
+  </si>
+  <si>
+    <t>CANCEROLOGIE FRED SIGUIER 2</t>
+  </si>
+  <si>
+    <t>REA CHIR  EN SSPI MATERNITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEUMO </t>
+  </si>
+  <si>
+    <t>REA CHIR EN SSPI</t>
+  </si>
+  <si>
+    <t>UHCD/ZSTCD PED</t>
+  </si>
+  <si>
+    <t>WIDAL 3 BOX 1/2 - REA COVID +</t>
+  </si>
+  <si>
+    <t>CHIR DIG/HGE MUTUALISE</t>
+  </si>
+  <si>
+    <t>CARDIO 3 - COVID +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDIO USIC </t>
+  </si>
+  <si>
+    <t>URO</t>
+  </si>
+  <si>
     <t>lits_ouverts</t>
   </si>
   <si>
-    <t>lits_ouverts_covid</t>
-  </si>
-  <si>
-    <t>Full COVID 1/0</t>
-  </si>
-  <si>
-    <t>PBR</t>
-  </si>
-  <si>
-    <t>SSR PASCAL</t>
-  </si>
-  <si>
-    <t>REA CHIR</t>
-  </si>
-  <si>
-    <t>REA EN SSPI</t>
-  </si>
-  <si>
-    <t>CHB 3</t>
-  </si>
-  <si>
-    <t>CHB 4</t>
-  </si>
-  <si>
-    <t>CHB 4 SC</t>
-  </si>
-  <si>
-    <t>ONCOLOGIE FS 1</t>
-  </si>
-  <si>
-    <t>CANCEROLOGIE FS 2</t>
-  </si>
-  <si>
-    <t>HEPATO FS</t>
-  </si>
-  <si>
-    <t>ADDICTOLOGIE</t>
-  </si>
-  <si>
-    <t>USLD CHAMPAGNE</t>
-  </si>
-  <si>
-    <t>USLD BOURGOGNE</t>
-  </si>
-  <si>
-    <t>SSR PICARDIE - POST COVID +</t>
-  </si>
-  <si>
-    <t>ONCOGERIATRIE</t>
-  </si>
-  <si>
-    <t>USLD LANGUEDOC - COVID +</t>
-  </si>
-  <si>
-    <t>USP DELARUE</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE DELAY</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE HERMITE</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE DENICKER</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE SIGWALD</t>
-  </si>
-  <si>
-    <t>SSR HUGO - ALZHEIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USLD LAFONTAINE </t>
-  </si>
-  <si>
-    <t>USLD CLAUDEL</t>
-  </si>
-  <si>
-    <t>USLD PICASSO - COVID +</t>
-  </si>
-  <si>
-    <t>SSR GERICAULT - POST COVID +</t>
-  </si>
-  <si>
-    <t>SSR VINCI</t>
-  </si>
-  <si>
-    <t>USLD DEBUSSY</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>SSR MOZART - COVID +</t>
-  </si>
-  <si>
-    <t>UCC - COVID +</t>
-  </si>
-  <si>
-    <t>USP MONTAIGNE</t>
-  </si>
-  <si>
-    <t>NUTRITION CLINIQUE</t>
-  </si>
-  <si>
-    <t>BCT</t>
-  </si>
-  <si>
-    <t>ENDOCRINO/DIABETO PED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PED GEN </t>
-  </si>
-  <si>
-    <t>NEUROPEDIATRIE</t>
-  </si>
-  <si>
-    <t>RHUMATO PED</t>
-  </si>
-  <si>
-    <t>PED GEN - COVID +</t>
-  </si>
-  <si>
-    <t>HEPATO PED</t>
-  </si>
-  <si>
-    <t>CHIR PED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REA + SC CHIR </t>
-  </si>
-  <si>
-    <t>REA  EN SSPI MATERNITE</t>
-  </si>
-  <si>
-    <t>ZSTCD ADULTES</t>
-  </si>
-  <si>
-    <t>REA CHIR AU BO</t>
-  </si>
-  <si>
-    <t>SC MATERNITE</t>
-  </si>
-  <si>
-    <t>USIP</t>
-  </si>
-  <si>
-    <t>CARDIOLOGIE</t>
-  </si>
-  <si>
-    <t>REA + SC MED</t>
-  </si>
-  <si>
-    <t>USIC</t>
-  </si>
-  <si>
-    <t>CHIR DIG/URO MUTUALISE</t>
-  </si>
-  <si>
-    <t>HGE/NEPHRO MUTUALISE</t>
-  </si>
-  <si>
-    <t>ENDOCRINO ADULTES</t>
-  </si>
-  <si>
-    <t>PNEUMO PETITE AILE</t>
-  </si>
-  <si>
-    <t>PNEUMO GRANDE AILE</t>
-  </si>
-  <si>
-    <t>ORTHO PLOT C - COVID +</t>
-  </si>
-  <si>
-    <t>ORTHO PLOT D - COVID +</t>
-  </si>
-  <si>
-    <t>UGA BROCA</t>
-  </si>
-  <si>
-    <t>NEPHRO - COVID +</t>
-  </si>
-  <si>
-    <t>UGA FBS</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>MEDECINE INTERNE</t>
-  </si>
-  <si>
-    <t>SMIT</t>
-  </si>
-  <si>
-    <t>RHUMATO ADULTES</t>
-  </si>
-  <si>
-    <t>USR</t>
-  </si>
-  <si>
-    <t>NEUROLOGIE BABINSKI</t>
-  </si>
-  <si>
-    <t>NEUROLOGIE LAPRESLE</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE PERINAT</t>
-  </si>
-  <si>
-    <t>NEUROCHIR/ORTHO MUTUALISE ALAJOUANINE</t>
-  </si>
-  <si>
-    <t>NEUROLOGIE HDS C. FOIX</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE FELINE</t>
-  </si>
-  <si>
-    <t>USINV</t>
-  </si>
-  <si>
-    <t>SOINS POST-AIGUS - ORL-OPH COVID+</t>
-  </si>
-  <si>
-    <t>SSR NEURO</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIE PINEL</t>
-  </si>
-  <si>
-    <t>NEUROCHIR/ORTHO MUTUALISE DJINDJIAN</t>
-  </si>
-  <si>
-    <t>SRPR</t>
-  </si>
-  <si>
-    <t>REA+SI NEONAT</t>
-  </si>
-  <si>
-    <t>REA+SI PED</t>
-  </si>
-  <si>
-    <t>REA NEONAT</t>
-  </si>
-  <si>
-    <t>OBSTETRIQUE</t>
-  </si>
-  <si>
-    <t>GYNECO/GHR MUTUALISE</t>
-  </si>
-  <si>
-    <t>UHCD PED</t>
-  </si>
-  <si>
-    <t>REA CHIR EN SSPI MATER</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>NEONAT KANGOUROUS</t>
-  </si>
-  <si>
-    <t>CHIR DIG/GYNECO/ORTHO MUTUALISE</t>
-  </si>
-  <si>
-    <t>COVID 30</t>
-  </si>
-  <si>
-    <t>REA</t>
-  </si>
-  <si>
-    <t>REA (Ex-USC)</t>
-  </si>
-  <si>
-    <t>ORTHO SEPTIQUE</t>
-  </si>
-  <si>
-    <t>COVID 12 (REA/SC)</t>
-  </si>
-  <si>
-    <t>COVID 14</t>
-  </si>
-  <si>
-    <t>ORTHO</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>MEDECINE INTERNE/SMIT</t>
-  </si>
-  <si>
-    <t>HGE</t>
-  </si>
-  <si>
-    <t>PEDIATRIE</t>
-  </si>
-  <si>
-    <t>NEONAT PED</t>
-  </si>
-  <si>
-    <t>UMAT</t>
-  </si>
-  <si>
-    <t>UHCD ADULTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHCD PEDIATRIQUE </t>
-  </si>
-  <si>
-    <t>REA AU BO</t>
-  </si>
-  <si>
-    <t>REA/USC EN SSPI</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USPC </t>
-  </si>
-  <si>
-    <t>USLD VERDI</t>
-  </si>
-  <si>
-    <t>USLD BIZET</t>
-  </si>
-  <si>
-    <t>USP GATINEAU</t>
-  </si>
-  <si>
-    <t>SSR BALME - COVID +</t>
-  </si>
-  <si>
-    <t>SSR CHOPIN</t>
-  </si>
-  <si>
-    <t>SSR/SLD BEAUSOLEIL MUTUALISE</t>
-  </si>
-  <si>
-    <t>SSR/SLD PROUST MUTUALISE</t>
-  </si>
-  <si>
-    <t>SSR MUSSET</t>
-  </si>
-  <si>
-    <t>UGA DEBUSSY - COVID +</t>
-  </si>
-  <si>
-    <t>SSR/SLD APOLLINAIRE MUTUALISE</t>
-  </si>
-  <si>
-    <t>SSR/SLD MOLIERE MUTUALISE</t>
-  </si>
-  <si>
-    <t>BCK</t>
-  </si>
-  <si>
-    <t>READAPTATION MENARD 1</t>
-  </si>
-  <si>
-    <t>READAPTATION POLYVALENTE</t>
-  </si>
-  <si>
-    <t>SSR MENARD 2 - COVID +</t>
-  </si>
-  <si>
-    <t>READAPTATION NUTRITION SORREL 1</t>
-  </si>
-  <si>
-    <t>READAPTATION NEURO SORREL 1</t>
-  </si>
-  <si>
-    <t>READAPTATION GERIATRIQUE</t>
-  </si>
-  <si>
-    <t>READAPTATION NEURO EN NUTRITION SORREL RDC</t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>BREZIN 1</t>
-  </si>
-  <si>
-    <t>LETTULE 1</t>
-  </si>
-  <si>
-    <t>LETTULE 3 S1 - REA PED</t>
-  </si>
-  <si>
-    <t>LETTULE 3 S2 - REA PED</t>
-  </si>
-  <si>
-    <t>LETTULE 3 S3 - SRPR PED</t>
-  </si>
-  <si>
-    <t>NETTER 2 - SSR MPR</t>
-  </si>
-  <si>
-    <t>NETTER 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 1 S1 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 1 S2 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 1 S3 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 1 S4 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 2 S1 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 2 S2 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 2 S3 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 2 S4 - COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 3 S3 - REA COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 3 S4 - REA COVID + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDAL 3 S1/S2 - REA COVID + </t>
-  </si>
-  <si>
-    <t>NETTER 1 - SRPR</t>
-  </si>
-  <si>
-    <t>APR</t>
-  </si>
-  <si>
-    <t>ORTHO/SEPTIQUE/VASCULAIRE MUTUALISE</t>
-  </si>
-  <si>
-    <t>UNITE COVID 1er D</t>
-  </si>
-  <si>
-    <t>REA COVID EN ORTHO</t>
-  </si>
-  <si>
-    <t>REA/SC</t>
-  </si>
-  <si>
-    <t>CHIR DIG</t>
-  </si>
-  <si>
-    <t>ENDOCRINO/NUTRITION/PNEUMO MUTUALISE</t>
-  </si>
-  <si>
-    <t>CARDIO</t>
-  </si>
-  <si>
-    <t>NEPHRO</t>
-  </si>
-  <si>
-    <t>CARDIO 3ÔøΩme - COVID +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDECINE </t>
-  </si>
-  <si>
-    <t>UGA/MEDECINE MUTUALISE</t>
-  </si>
-  <si>
-    <t>MEDECINCE INTERNE 4D - COVID +</t>
-  </si>
-  <si>
-    <t>PNEUMO 5A - COVID +</t>
-  </si>
-  <si>
-    <t>UPOG/UGA - COVID +</t>
-  </si>
-  <si>
-    <t>COVID 5ÔøΩme D - COVID +</t>
-  </si>
-  <si>
-    <t>DERMATO</t>
-  </si>
-  <si>
-    <t>RHUMATO</t>
-  </si>
-  <si>
-    <t>PEDIATRIE/ADOS MUTUALISE</t>
-  </si>
-  <si>
-    <t>PEDIATRIE/ADOS/ ZHTCD MUTUALISE</t>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REA </t>
+  </si>
+  <si>
+    <t>NRI BABINSKI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,28 +589,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -612,7 +618,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -620,14 +626,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -635,14 +641,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -650,7 +656,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -658,14 +664,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -991,30 +997,37 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1062,6 +1075,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,7 +1092,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1090,7 +1108,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1102,7 +1120,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1149,23 +1167,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1201,23 +1202,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1369,14 +1353,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1386,21 +1377,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -1411,10 +1402,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -1428,10 +1419,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1442,10 +1433,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1457,40 +1448,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -1501,10 +1492,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1515,10 +1506,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -1529,10 +1520,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1543,10 +1534,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1557,10 +1548,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -1571,10 +1562,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -1586,20 +1577,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>33</v>
@@ -1613,10 +1610,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1625,68 +1622,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="1">
         <v>16</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="1">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="1">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1697,10 +1694,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -1711,10 +1708,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>35</v>
@@ -1725,10 +1722,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>34</v>
@@ -1742,10 +1739,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -1759,10 +1756,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1776,10 +1773,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>34</v>
@@ -1790,10 +1787,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>34</v>
@@ -1802,34 +1799,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -1840,10 +1843,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1854,10 +1857,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>19</v>
@@ -1882,10 +1885,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1896,10 +1899,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1910,10 +1913,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1922,96 +1925,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
       <c r="C41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>20</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44">
-        <v>19</v>
-      </c>
-      <c r="D44">
-        <v>19</v>
-      </c>
-      <c r="E44">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="1">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2019,16 +2037,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2036,156 +2054,168 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>12</v>
-      </c>
-      <c r="E48">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1">
+        <v>25</v>
+      </c>
+      <c r="E48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1">
         <v>14</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>25</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="1">
         <v>8</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="1">
         <v>42</v>
       </c>
-      <c r="D55">
+      <c r="D54" s="1">
         <v>42</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2193,16 +2223,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2210,16 +2240,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2227,24 +2257,27 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2252,16 +2285,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2269,30 +2302,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>29</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2300,27 +2330,24 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>26</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -2331,13 +2358,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2345,13 +2372,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2359,55 +2386,55 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71">
-        <v>17</v>
-      </c>
-      <c r="D71">
+    <row r="70" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="1">
+        <v>14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2415,66 +2442,72 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75">
-        <v>12</v>
-      </c>
-      <c r="D75">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="1">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2482,13 +2515,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2496,122 +2529,122 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C80">
         <v>12</v>
       </c>
       <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81">
-        <v>20</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82">
-        <v>20</v>
-      </c>
-      <c r="D82">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83">
-        <v>12</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84">
-        <v>33</v>
-      </c>
-      <c r="D84">
+      <c r="D82" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="3">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1">
+        <v>68</v>
+      </c>
+      <c r="D86" s="1">
         <v>8</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86">
-        <v>10</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -2620,105 +2653,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88">
-        <v>25</v>
-      </c>
-      <c r="D88">
+    <row r="88" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="1">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C89">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="1">
         <v>8</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91">
+      <c r="D91" s="1">
         <v>8</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>30</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93">
-        <v>15</v>
-      </c>
-      <c r="D93">
-        <v>15</v>
-      </c>
-      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="1">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2726,100 +2768,106 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>14</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D98">
-        <v>33</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
+        <v>52</v>
+      </c>
+      <c r="C99">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2827,16 +2875,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2844,61 +2892,55 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>10</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105">
-        <v>15</v>
-      </c>
-      <c r="D105">
-        <v>15</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+    <row r="105" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2909,10 +2951,10 @@
         <v>89</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2922,8 +2964,11 @@
       <c r="A108" t="s">
         <v>89</v>
       </c>
+      <c r="B108" t="s">
+        <v>91</v>
+      </c>
       <c r="C108">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2934,10 +2979,10 @@
         <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2948,10 +2993,10 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2959,27 +3004,30 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C112">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2987,13 +3035,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C113">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3001,13 +3049,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3015,30 +3063,27 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C115">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115">
-        <v>27</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3046,10 +3091,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C117">
         <v>35</v>
@@ -3060,10 +3105,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C118">
         <v>35</v>
@@ -3074,13 +3119,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C119">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3088,13 +3133,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C120">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3102,27 +3147,30 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C121">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C122">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3130,13 +3178,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C123">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3144,13 +3192,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C124">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3158,30 +3206,27 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125">
-        <v>12</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C126">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3189,13 +3234,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C127">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3203,13 +3248,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C128">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3217,13 +3262,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C129">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3231,13 +3276,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3245,13 +3290,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C131">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3259,13 +3304,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3273,72 +3318,84 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C135">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3346,16 +3403,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3363,10 +3420,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C139">
         <v>11</v>
@@ -3380,33 +3437,30 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>8</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -3414,98 +3468,92 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C143" s="1">
         <v>12</v>
       </c>
-      <c r="D142">
+      <c r="D143" s="1">
         <v>12</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>130</v>
-      </c>
-      <c r="B143" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143">
-        <v>14</v>
-      </c>
-      <c r="D143">
-        <v>14</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" s="1">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>10</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
         <v>130</v>
       </c>
-      <c r="B146" t="s">
-        <v>147</v>
-      </c>
       <c r="C146">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D146">
-        <v>3</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D147">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -3513,109 +3561,103 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149">
-        <v>24</v>
-      </c>
-      <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D150">
-        <v>7</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>153</v>
-      </c>
-      <c r="C151">
-        <v>8</v>
-      </c>
-      <c r="D151">
-        <v>8</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B152" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C152">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153">
-        <v>22</v>
-      </c>
-      <c r="D153">
-        <v>22</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" s="1">
+        <v>24</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C154">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3623,38 +3665,44 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C155">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>150</v>
+    <row r="156" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C156">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3662,13 +3710,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C158">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3676,27 +3724,27 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C159">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C160">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3704,30 +3752,33 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C161">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C162">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D162">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -3735,16 +3786,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C163">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D163">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -3752,61 +3803,55 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C164">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>27</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C165">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D165">
-        <v>22</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C166">
         <v>10</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3814,47 +3859,21 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="C168">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>150</v>
-      </c>
-      <c r="B169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169">
-        <v>18</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>150</v>
-      </c>
-      <c r="B170" t="s">
-        <v>105</v>
-      </c>
-      <c r="C170">
-        <v>18</v>
-      </c>
-      <c r="D170">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:E168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>